--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_260.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_260.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1597542242703533</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Ab:7', 'Db']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(74.84, 89.52)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(93.75, 97.74)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1689723320158103</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09642857142857142</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:11.240000', '0:00:15.780000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1470588235294118</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E/3', 'A', 'E/5', 'B', 'E']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(50.730362, 55.420793)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(28.395907, 41.761111)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1885964912280702</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min7', 'D:sus4', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1613636363636363</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:sus4', 'G', 'C']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(18.501065, 24.259614)]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(98.821, 106.71)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:16.240000', '0:00:18.880000'), ('0:00:06.620000', '0:00:12.780000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:03:46.620000', '0:03:50.460000'), ('0:03:45.320000', '0:03:47.900000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1245901639344262</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1517241379310345</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(49.56, 55.72)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.18, 53.36)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:18', '0:00:26.460000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1651785714285714</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'A/3']]</t>
-        </is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09967320261437909</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(38.689, 45.633)]</t>
+          <t>[['A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(63.46, 65.78)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:06.090000', '0:00:13.659705')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:07.605000', '0:00:11.853000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_226</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(41.78, 49.06), (38.74, 47.14), (44.82, 56.28)]</t>
+          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(21.94, 27.52), (62.0, 67.1), (20.78, 25.36)]</t>
+          <t>[('0:01:20.022335', '0:01:23.702698')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:52.120000', '0:00:55.480000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(137.34, 140.48)]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(4.82, 22.08)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(90.74, 109.7)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(60.82, 66.82)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1884615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.702, 13.841)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_51</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.02326388888888889</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Db:7', 'Gb:maj7', 'Gb:maj7'], ['C:min7', 'F:7', 'Bb:maj7']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj7', 'Ab:maj7'], ['D:min7', 'G:7', 'C:maj7']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(316.49, 317.72), (51.17, 54.73)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.81, 24.91), (27.63, 31.04)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.3, 17.65)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(250.3, 252.76)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1330316742081448</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'B']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(56.36, 59.8)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.421269, 22.168299)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2444444444444444</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'C', 'G', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F/5', 'Eb/5', 'Bb', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(62.486724, 70.753028)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.324217, 15.172562)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
